--- a/DomainsWebSiteHosting.xlsx
+++ b/DomainsWebSiteHosting.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\DomainsAndWebSiteHosting\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D034458-66CA-47E3-96F8-7D9000DC7086}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,79 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+  <si>
+    <t>Domain Extension</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>.com.bd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                Intended for Commercial entities and purposes</t>
+  </si>
+  <si>
+    <t>.org.bd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                Intended for Not-for-profit entities</t>
+  </si>
+  <si>
+    <t>.info.bd</t>
+  </si>
+  <si>
+    <t>Intended for personal names, only individuals can register</t>
+  </si>
+  <si>
+    <t>.net.bd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                Restricted to Bangladeshi Internet Service Provider's infrastructure</t>
+  </si>
+  <si>
+    <t>.edu.bd</t>
+  </si>
+  <si>
+    <t>Restricted to Bangladeshi Educational institute, college and universities</t>
+  </si>
+  <si>
+    <t>.ac.bd</t>
+  </si>
+  <si>
+    <t>Restricted to Bangladeshi Academic institute, schools and coaching center</t>
+  </si>
+  <si>
+    <t>.gov.bd</t>
+  </si>
+  <si>
+    <t>Restricted to Government</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TO DO - Get a reseller web hosting server Account. </t>
+  </si>
+  <si>
+    <t>TO DO - Personal Blog</t>
+  </si>
+  <si>
+    <t>To DO - List page for all Bangladeshi Educational institute, college and universities</t>
+  </si>
+  <si>
+    <t>To DO - Personal Tutorial Pages</t>
+  </si>
+  <si>
+    <t>buy off in 29/10/2021</t>
+  </si>
+  <si>
+    <t>TO DO - Make a list page for  and of all NGO</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -49,8 +126,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +410,217 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="E8:P18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="5" max="5" width="19.140625" customWidth="1"/>
+    <col min="6" max="6" width="26.85546875" customWidth="1"/>
+    <col min="7" max="7" width="27" customWidth="1"/>
+    <col min="8" max="8" width="29.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="8" spans="5:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="E8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+    </row>
+    <row r="9" spans="5:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="E9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+    </row>
+    <row r="10" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+    </row>
+    <row r="11" spans="5:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="E11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+    </row>
+    <row r="12" spans="5:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="E12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+    </row>
+    <row r="13" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+    </row>
+    <row r="14" spans="5:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="E14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+    </row>
+    <row r="15" spans="5:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="E15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+    </row>
+    <row r="16" spans="5:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="E16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+    </row>
+    <row r="17" spans="5:16" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+    </row>
+    <row r="18" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>